--- a/Testdata/testdata.xlsx
+++ b/Testdata/testdata.xlsx
@@ -28,10 +28,10 @@
     <t>Abhinath</t>
   </si>
   <si>
-    <t>Ajith</t>
-  </si>
-  <si>
     <t>Binish</t>
+  </si>
+  <si>
+    <t>sooraj</t>
   </si>
   <si>
     <t>Harish</t>
@@ -436,7 +436,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,15 +484,15 @@
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/testdata.xlsx
+++ b/Testdata/testdata.xlsx
@@ -10,6 +10,7 @@
     <sheet name="credentials" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -435,8 +436,7 @@
   <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Testdata/testdata.xlsx
+++ b/Testdata/testdata.xlsx
@@ -10,32 +10,31 @@
     <sheet name="credentials" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>UserName</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Password</t>
   </si>
   <si>
-    <t>Search</t>
-  </si>
-  <si>
-    <t>Abhinath</t>
-  </si>
-  <si>
-    <t>Binish</t>
-  </si>
-  <si>
-    <t>sooraj</t>
-  </si>
-  <si>
-    <t>Harish</t>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Confirm password</t>
+  </si>
+  <si>
+    <t>jino555</t>
+  </si>
+  <si>
+    <t>9745754904</t>
+  </si>
+  <si>
+    <t>Jino Philip</t>
   </si>
 </sst>
 </file>
@@ -433,31 +432,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="3"/>
+    <col min="2" max="2" width="12.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -474,24 +476,19 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="2"/>
+      <c r="U1" s="2"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Testdata/testdata.xlsx
+++ b/Testdata/testdata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Password</t>
   </si>
@@ -22,26 +22,29 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Username</t>
-  </si>
-  <si>
     <t>Confirm password</t>
   </si>
   <si>
-    <t>jino555</t>
-  </si>
-  <si>
     <t>9745754904</t>
   </si>
   <si>
     <t>Jino Philip</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>jino555@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +65,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -115,10 +126,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -128,8 +140,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -432,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -441,26 +455,29 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="3"/>
+    <col min="2" max="2" width="19.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -476,24 +493,31 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
-      <c r="U1" s="2"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="2"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="B2" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Testdata/testdata.xlsx
+++ b/Testdata/testdata.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20115" windowHeight="7170"/>
   </bookViews>
   <sheets>
-    <sheet name="credentials" sheetId="1" r:id="rId1"/>
+    <sheet name="signup_details" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>Password</t>
   </si>
@@ -31,20 +31,14 @@
     <t>Jino Philip</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
     <t>phone</t>
-  </si>
-  <si>
-    <t>jino555@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,14 +59,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -126,11 +112,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -140,10 +125,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -446,23 +429,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="3"/>
+    <col min="2" max="2" width="12.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -470,14 +452,12 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -493,15 +473,14 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="2"/>
+      <c r="U1" s="2"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>7</v>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>3</v>
@@ -509,15 +488,9 @@
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>